--- a/biology/Médecine/Plagiocéphalie/Plagiocéphalie.xlsx
+++ b/biology/Médecine/Plagiocéphalie/Plagiocéphalie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plagioc%C3%A9phalie</t>
+          <t>Plagiocéphalie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La plagiocéphalie (du grec plagios = oblique et kephalê = tête) est un signe clinique rhumatologique se traduisant par un aplatissement unilatéral de la voûte crânienne. Il en existe deux formes, aux natures totalement différentes :
 la plagiocéphalie positionnelle (ou plagiocéphalie posturale) : de loin la plus fréquente, il s'agit d'une déformation du crâne du nouveau-né.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plagioc%C3%A9phalie</t>
+          <t>Plagiocéphalie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plagiocéphalie est une « malformation ou déformation du crâne caractérisée par un aspect asymétrique donnant à la tête une forme oblique[1]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plagiocéphalie est une « malformation ou déformation du crâne caractérisée par un aspect asymétrique donnant à la tête une forme oblique. »
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Plagioc%C3%A9phalie</t>
+          <t>Plagiocéphalie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec ou sans synostose, pédiatres et épidémiologistes notent depuis le début des années 1990 une augmentation de l'incidence de la plagiocéphalie ; ce pourrait être lié notamment à la diffusion et la mise en œuvre de recommandations pour la prévention de la mort subite du nourrisson[2],[3], qui proposent de coucher les bébés sur le dos.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec ou sans synostose, pédiatres et épidémiologistes notent depuis le début des années 1990 une augmentation de l'incidence de la plagiocéphalie ; ce pourrait être lié notamment à la diffusion et la mise en œuvre de recommandations pour la prévention de la mort subite du nourrisson qui proposent de coucher les bébés sur le dos.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Plagioc%C3%A9phalie</t>
+          <t>Plagiocéphalie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Deux causes de plagiocéphalie doivent principalement être distinguées[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Deux causes de plagiocéphalie doivent principalement être distinguées :
 la plagiocéphalie sur craniosténose : soudure prématurée des sutures crâniennes du nouveau-né ;
 la plagiocéphalie positionnelle (ou plagiocéphalie posturale) : de loin la plus fréquente, il s'agit d'une déformation du crâne du nouveau-né.</t>
         </is>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Plagioc%C3%A9phalie</t>
+          <t>Plagiocéphalie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,13 +625,15 @@
           <t>Évaluation de la plagiocéphalie : mesures des asymétries</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il existe différentes façons d’objectiver la sévérité d’une asymétrie et de suivre l’évolution mois après mois :
 Pour les parents, prendre des photos régulièrement (minimum une fois par mois) dans le but de comparer la forme.
 La plagiocéphalométrie (PCM) est un procédé par bande thermoplastique permettant de mouler la circonférence de la tête du nourrisson en quelques minutes.
 Les mesures anthropométriques : consiste à mesurer la différence entre les 2 diagonales : normal &lt; 3 mm  -  3 mm &lt; légère à modérée &lt; 12 mm  -  modérée à sévère &gt; 12 mm
-L’index céphalique :  Largeur/Profondeur × 100 : brachycéphalie &gt; 93 % et dolichocéphalie &lt; 75 %[5]</t>
+L’index céphalique :  Largeur/Profondeur × 100 : brachycéphalie &gt; 93 % et dolichocéphalie &lt; 75 %</t>
         </is>
       </c>
     </row>
@@ -623,7 +643,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Plagioc%C3%A9phalie</t>
+          <t>Plagiocéphalie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,9 +661,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si la craniosynostose nécessite une prise en charge multidisciplinaire et spécialisée[6], la plagiocéphalie de la déformation positionnelle répond bien aux changements systématiques de position de couchage, à la rééducation et la massokinésithérapie
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si la craniosynostose nécessite une prise en charge multidisciplinaire et spécialisée, la plagiocéphalie de la déformation positionnelle répond bien aux changements systématiques de position de couchage, à la rééducation et la massokinésithérapie
 </t>
         </is>
       </c>
@@ -654,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Plagioc%C3%A9phalie</t>
+          <t>Plagiocéphalie</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,16 +694,18 @@
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des conseils de prévention peuvent être donnés afin de minimiser le risque de plagiocéphalie positionnelle.[réf. nécessaire] En février 2020, la Haute Autorité de Santé publient les recommandations suivantes[7] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des conseils de prévention peuvent être donnés afin de minimiser le risque de plagiocéphalie positionnelle.[réf. nécessaire] En février 2020, la Haute Autorité de Santé publient les recommandations suivantes :
 En anténatal
 Aménagement d’un environnement sans risque pour le nourrisson et favorisant le respect de son activité motrice spontanée pendant le sommeil et l’éveil
 Les futurs parents doivent connaître l’effet délétère de tous les dispositifs de contention (cf. facteurs de risque) qui favorisent la survenue d’une déformation crânienne positionnelle (DCP) en limitant la motricité spontanée des nourrissons, et augmentent le risque de mort inattendue (MIN) du nourrisson par enfouissement.
 L’allaitement maternel doit être encouragé. Il est un facteur de protection contre la MIN et contre la DCP.
 Après la naissance
 Il est recommandé de respecter en toute situation la position neutre de la tête en évitant toute posture en hyperextension ou hyperflexion du cou.
-Il est recommandé d’adresser les enfants présentant un torticolis postural ou musculaire vers un kinésithérapeute à orientation pédiatrique. Plus le traitement est prescrit tôt (durant le premier mois de vie), plus les chances de normalisation sont importantes. Actuellement les données scientifiques ne permettent pas de recommander l’ostéopathie. Une approche ostéopathique à orientation pédiatrique peut être associée à la kinésithérapie en deuxième intention dans le cadre d’une prise en charge pluri-professionnelle. Toutefois, la Haute Autorité de Santé, rappelle en mars 2020, que les données scientifiques ne permettent pas de recommander l'ostéopathie[8].
+Il est recommandé d’adresser les enfants présentant un torticolis postural ou musculaire vers un kinésithérapeute à orientation pédiatrique. Plus le traitement est prescrit tôt (durant le premier mois de vie), plus les chances de normalisation sont importantes. Actuellement les données scientifiques ne permettent pas de recommander l’ostéopathie. Une approche ostéopathique à orientation pédiatrique peut être associée à la kinésithérapie en deuxième intention dans le cadre d’une prise en charge pluri-professionnelle. Toutefois, la Haute Autorité de Santé, rappelle en mars 2020, que les données scientifiques ne permettent pas de recommander l'ostéopathie.
 Quand le nourrisson est éveillé
 Il est recommandé de favoriser les temps d’interactions de qualité entre les adultes et le nourrisson.
 Il est recommandé de varier les postures et d’encourager les rotations spontanées de la tête du nourrisson par des sollicitations sensorielles (tactiles, visuelles, auditives) à adapter en fonction de l’âge.
